--- a/biology/Médecine/Artère_ptérygoméningée/Artère_ptérygoméningée.xlsx
+++ b/biology/Médecine/Artère_ptérygoméningée/Artère_ptérygoméningée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_pt%C3%A9rygom%C3%A9ning%C3%A9e</t>
+          <t>Artère_ptérygoméningée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère ptérygoméningée (ou artère petite méningée) est une branche collatérale inconstante de l'artère maxillaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_pt%C3%A9rygom%C3%A9ning%C3%A9e</t>
+          <t>Artère_ptérygoméningée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère ptérygoméningée nait immédiatement après l'artère méningée moyenne, parfois directement de celle-ci.
 Sa naissance se situe en avant du col du condyle de la mandibule en regard de la face médiale du muscle ptérygoïdien latéral.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_pt%C3%A9rygom%C3%A9ning%C3%A9e</t>
+          <t>Artère_ptérygoméningée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Environ 10 % seulement du sang circulant dans cette artère atteint les structures intracrâniennes[1]. Le flux sanguin restant est dispersé dans les structures extracrâniennes autour de la fosse infratemporale.
-Reflétant ce fait, Terminologia Anatomica répertorie les entrées à la fois pour "branche accessoire de l'artère méningée moyenne" et "artère ptérygoméningée"[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Environ 10 % seulement du sang circulant dans cette artère atteint les structures intracrâniennes. Le flux sanguin restant est dispersé dans les structures extracrâniennes autour de la fosse infratemporale.
+Reflétant ce fait, Terminologia Anatomica répertorie les entrées à la fois pour "branche accessoire de l'artère méningée moyenne" et "artère ptérygoméningée".
 </t>
         </is>
       </c>
